--- a/biology/Zoologie/Gerbille_du_Congo/Gerbille_du_Congo.xlsx
+++ b/biology/Zoologie/Gerbille_du_Congo/Gerbille_du_Congo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Taterillus congicus
 La gerbille du Congo (Taterillus congicus) est un rongeur de la famille des muridés. Elle est présente au Cameroun, en République centrafricaine, au Tchad, en République démocratique du Congo, au Soudan, et peut-être en Ouganda. Son habitat naturel est la savane sèche.
@@ -512,7 +524,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
